--- a/Luban/LubanConfig/Datas/__enums__.xlsx
+++ b/Luban/LubanConfig/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFD88F-F5CD-44B4-B894-70045D38330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2DDB1-3508-46CD-8FF4-F0E576807BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1665" windowWidth="16695" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1425" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
   <si>
     <t>##var</t>
   </si>
@@ -77,13 +77,509 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>EnumEntity</t>
+  </si>
+  <si>
+    <t>GameStart</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>Level2</t>
+  </si>
+  <si>
+    <t>Level3</t>
+  </si>
+  <si>
+    <t>Level4</t>
+  </si>
+  <si>
+    <t>Level5</t>
+  </si>
+  <si>
+    <t>UIMainMenuForm</t>
+  </si>
+  <si>
+    <t>UIOptionsForm</t>
+  </si>
+  <si>
+    <t>UILevelSelectForm</t>
+  </si>
+  <si>
+    <t>UILevelMainInfoForm</t>
+  </si>
+  <si>
+    <t>UITowerListForm</t>
+  </si>
+  <si>
+    <t>UIPausePanelForm</t>
+  </si>
+  <si>
+    <t>UIGameOverForm</t>
+  </si>
+  <si>
+    <t>UIMask</t>
+  </si>
+  <si>
+    <t>UITowerControllerForm</t>
+  </si>
+  <si>
+    <t>UIDownloadForm</t>
+  </si>
+  <si>
+    <t>MachineGunProjectile</t>
+  </si>
+  <si>
+    <t>EMPGeneratorPreview</t>
+  </si>
+  <si>
+    <t>EnergyPylonPreview</t>
+  </si>
+  <si>
+    <t>RocketProjectile</t>
+  </si>
+  <si>
+    <t>BulletHit</t>
+  </si>
+  <si>
+    <t>LaserImpactPFX</t>
+  </si>
+  <si>
+    <t>RocketTrail</t>
+  </si>
+  <si>
+    <t>RocketExplosionPfx</t>
+  </si>
+  <si>
+    <t>SupertowerMissileTrail</t>
+  </si>
+  <si>
+    <t>SmallDeathExplosionPfx</t>
+  </si>
+  <si>
+    <t>BigDeathExplosionPfx</t>
+  </si>
+  <si>
+    <t>SlowFx</t>
+  </si>
+  <si>
+    <t>HPBar</t>
+  </si>
+  <si>
+    <t>EnemyProjectile</t>
+  </si>
+  <si>
+    <t>LevelSelectionButton</t>
+  </si>
+  <si>
+    <t>TowerBuildButton</t>
+  </si>
+  <si>
+    <t>AssaultCannonPreview</t>
+  </si>
+  <si>
+    <t>RocketPlatformPreview</t>
+  </si>
+  <si>
+    <t>PlasmaLancePreview</t>
+  </si>
+  <si>
+    <t>MissileArrayPreview</t>
+  </si>
+  <si>
+    <t>AssaultCannon</t>
+  </si>
+  <si>
+    <t>RocketPlatform</t>
+  </si>
+  <si>
+    <t>PlasmaLance</t>
+  </si>
+  <si>
+    <t>EnergyPylon</t>
+  </si>
+  <si>
+    <t>EMPGenerator</t>
+  </si>
+  <si>
+    <t>MissileArray</t>
+  </si>
+  <si>
+    <t>AssaultCannon_Level1</t>
+  </si>
+  <si>
+    <t>AssaultCannon_Level2</t>
+  </si>
+  <si>
+    <t>AssaultCannon_Level3</t>
+  </si>
+  <si>
+    <t>RocketPlatform_Level1</t>
+  </si>
+  <si>
+    <t>RocketPlatform_Level2</t>
+  </si>
+  <si>
+    <t>RocketPlatform_Level3</t>
+  </si>
+  <si>
+    <t>PlasmaLance_Level1</t>
+  </si>
+  <si>
+    <t>PlasmaLance_Level2</t>
+  </si>
+  <si>
+    <t>PlasmaLance_Level3</t>
+  </si>
+  <si>
+    <t>EnergyPylon_Level1</t>
+  </si>
+  <si>
+    <t>EnergyPylon_Level2</t>
+  </si>
+  <si>
+    <t>EnergyPylon_Level3</t>
+  </si>
+  <si>
+    <t>EMPGenerator_Level1</t>
+  </si>
+  <si>
+    <t>EMPGenerator_Level2</t>
+  </si>
+  <si>
+    <t>EMPGenerator_Level3</t>
+  </si>
+  <si>
+    <t>MissileArray_Level1</t>
+  </si>
+  <si>
+    <t>RadiusVisualiser</t>
+  </si>
+  <si>
+    <t>BuildPfx</t>
+  </si>
+  <si>
+    <t>Hovercopter</t>
+  </si>
+  <si>
+    <t>Hovertank</t>
+  </si>
+  <si>
+    <t>Hoverboss</t>
+  </si>
+  <si>
+    <t>SuperHoverbuggy</t>
+  </si>
+  <si>
+    <t>SuperHovercopter</t>
+  </si>
+  <si>
+    <t>SuperHovertank</t>
+  </si>
+  <si>
+    <t>SuperHoverboss</t>
+  </si>
+  <si>
+    <t>EntityPlayer</t>
+  </si>
+  <si>
+    <t>LaserProjectile</t>
+  </si>
+  <si>
+    <t>SuperTowerProjectile</t>
+  </si>
+  <si>
+    <t>启动场景</t>
+  </si>
+  <si>
+    <t>菜单场景</t>
+  </si>
+  <si>
+    <t>第一关</t>
+  </si>
+  <si>
+    <t>第二关</t>
+  </si>
+  <si>
+    <t>第三关</t>
+  </si>
+  <si>
+    <t>第四关</t>
+  </si>
+  <si>
+    <t>第五关</t>
+  </si>
+  <si>
+    <t>主菜单</t>
+  </si>
+  <si>
+    <t>设置界面</t>
+  </si>
+  <si>
+    <t>关卡选择界面</t>
+  </si>
+  <si>
+    <t>关卡主界面</t>
+  </si>
+  <si>
+    <t>炮塔列表</t>
+  </si>
+  <si>
+    <t>暂停界面</t>
+  </si>
+  <si>
+    <t>游戏结束</t>
+  </si>
+  <si>
+    <t>UI遮罩</t>
+  </si>
+  <si>
+    <t>炮塔控制面板</t>
+  </si>
+  <si>
+    <t>下载速度界面</t>
+  </si>
+  <si>
+    <t>突击加农炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火箭炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等离子喷枪炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导弹炮弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹击中特效</t>
+  </si>
+  <si>
+    <t>激光击中特效</t>
+  </si>
+  <si>
+    <t>火箭尾部特效</t>
+  </si>
+  <si>
+    <t>火箭爆炸特效</t>
+  </si>
+  <si>
+    <t>导弹尾部特效</t>
+  </si>
+  <si>
+    <r>
+      <t>敌人死亡特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>敌人死亡特效</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>敌人减速</t>
+  </si>
+  <si>
+    <t>血条</t>
+  </si>
+  <si>
+    <t>敌人炮弹实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡选择按钮</t>
+  </si>
+  <si>
+    <t>构建炮塔按钮</t>
+  </si>
+  <si>
+    <t>突击加农炮预览</t>
+  </si>
+  <si>
+    <t>火箭预览</t>
+  </si>
+  <si>
+    <t>等离子喷枪预览</t>
+  </si>
+  <si>
+    <t>能量塔预览</t>
+  </si>
+  <si>
+    <t>电磁脉冲发生器预览</t>
+  </si>
+  <si>
+    <t>导弹阵列预览</t>
+  </si>
+  <si>
+    <t>突击加农炮</t>
+  </si>
+  <si>
+    <t>火箭</t>
+  </si>
+  <si>
+    <t>等离子喷枪</t>
+  </si>
+  <si>
+    <t>能量塔</t>
+  </si>
+  <si>
+    <t>电磁脉冲发生器</t>
+  </si>
+  <si>
+    <t>导弹阵列</t>
+  </si>
+  <si>
+    <t>突击加农炮等级1</t>
+  </si>
+  <si>
+    <t>突击加农炮等级2</t>
+  </si>
+  <si>
+    <t>突击加农炮等级3</t>
+  </si>
+  <si>
+    <t>火箭等级1</t>
+  </si>
+  <si>
+    <t>火箭等级2</t>
+  </si>
+  <si>
+    <t>火箭等级3</t>
+  </si>
+  <si>
+    <t>等离子喷枪等级1</t>
+  </si>
+  <si>
+    <t>等离子喷枪等级2</t>
+  </si>
+  <si>
+    <t>等离子喷枪等级3</t>
+  </si>
+  <si>
+    <t>能量塔等级1</t>
+  </si>
+  <si>
+    <t>能量塔等级2</t>
+  </si>
+  <si>
+    <t>能量塔等级3</t>
+  </si>
+  <si>
+    <t>电磁脉冲发生器等级1</t>
+  </si>
+  <si>
+    <t>电磁脉冲发生器等级2</t>
+  </si>
+  <si>
+    <t>电磁脉冲发生器等级3</t>
+  </si>
+  <si>
+    <t>导弹阵列等级1</t>
+  </si>
+  <si>
+    <t>范围指示器</t>
+  </si>
+  <si>
+    <t>炮塔放置特效</t>
+  </si>
+  <si>
+    <t>虫子</t>
+  </si>
+  <si>
+    <t>直升机</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>首领</t>
+  </si>
+  <si>
+    <t>超级虫子</t>
+  </si>
+  <si>
+    <t>超级直升机</t>
+  </si>
+  <si>
+    <t>超级坦克</t>
+  </si>
+  <si>
+    <t>超级首领</t>
+  </si>
+  <si>
+    <t>玩家</t>
+  </si>
+  <si>
+    <t>突击加农炮炮弹</t>
+  </si>
+  <si>
+    <t>火箭炮弹</t>
+  </si>
+  <si>
+    <t>等离子喷枪炮弹</t>
+  </si>
+  <si>
+    <t>导弹阵列炮弹</t>
+  </si>
+  <si>
+    <t>BulletHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoverbuggy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +593,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -142,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,6 +664,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -430,26 +950,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L13"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
     <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,7 +999,7 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="99" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -534,6 +1054,905 @@
         <v>18</v>
       </c>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5">
+        <v>101</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5">
+        <v>102</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="5">
+        <v>103</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5">
+        <v>104</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5">
+        <v>105</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="5">
+        <v>106</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="5">
+        <v>107</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1001</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1002</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1003</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1004</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1005</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1006</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1007</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1008</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1009</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1010</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1040</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1041</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="6">
+        <v>1042</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1043</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1044</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1045</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1046</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="6">
+        <v>1047</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="6">
+        <v>1048</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" ht="15">
+      <c r="H30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1049</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" ht="15">
+      <c r="H31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J31" s="6">
+        <v>1050</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1051</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="6">
+        <v>1052</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="6">
+        <v>1053</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2001</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2002</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J37" s="5">
+        <v>3001</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="5">
+        <v>3002</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="5">
+        <v>3003</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="5">
+        <v>3004</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11" ht="28.5">
+      <c r="H41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="5">
+        <v>3005</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11">
+      <c r="H42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="5">
+        <v>3006</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11">
+      <c r="H43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="5">
+        <v>3007</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11">
+      <c r="H44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="5">
+        <v>3008</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11">
+      <c r="H45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" s="5">
+        <v>3009</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="8:11">
+      <c r="H46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3010</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="8:11">
+      <c r="H47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J47" s="5">
+        <v>3011</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="8:11">
+      <c r="H48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J48" s="5">
+        <v>3012</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J49" s="5">
+        <v>3013</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11">
+      <c r="H50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J50" s="5">
+        <v>3014</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11">
+      <c r="H51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J51" s="5">
+        <v>3015</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="8:11">
+      <c r="H52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="5">
+        <v>3016</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="8:11">
+      <c r="H53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="5">
+        <v>3017</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="8:11">
+      <c r="H54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" s="5">
+        <v>3018</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="8:11">
+      <c r="H55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3019</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="5">
+        <v>3020</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11">
+      <c r="H57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="5">
+        <v>3021</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="8:11">
+      <c r="H58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J58" s="5">
+        <v>3022</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11">
+      <c r="H59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J59" s="5">
+        <v>3023</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11">
+      <c r="H60" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="5">
+        <v>3024</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11" ht="28.5">
+      <c r="H61" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="5">
+        <v>3025</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11" ht="28.5">
+      <c r="H62" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J62" s="5">
+        <v>3026</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11" ht="28.5">
+      <c r="H63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J63" s="5">
+        <v>3027</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="8:11">
+      <c r="H64" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3028</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="H65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J65" s="5">
+        <v>3029</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="H66" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J66" s="5">
+        <v>3030</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="H67" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J67" s="5">
+        <v>3031</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="H68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J68" s="5">
+        <v>3032</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="H69" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J69" s="5">
+        <v>3033</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="H70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J70" s="5">
+        <v>3034</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="H71" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="5">
+        <v>3035</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="H72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" s="5">
+        <v>3036</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="H73" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J73" s="5">
+        <v>3037</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="H74" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J74" s="5">
+        <v>3038</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="H75" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J75" s="5">
+        <v>3039</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="5">
+        <v>3040</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" s="5">
+        <v>3041</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J78" s="5">
+        <v>3042</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J79" s="5">
+        <v>3043</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J80" s="5">
+        <v>3044</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J81" s="5">
+        <v>3045</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J82" s="5">
+        <v>3046</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Luban/LubanConfig/Datas/__enums__.xlsx
+++ b/Luban/LubanConfig/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2DDB1-3508-46CD-8FF4-F0E576807BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7B84E-E4E7-4378-82CA-FD6E1EBE2D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1425" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="218">
   <si>
     <t>##var</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>EnumEntity</t>
   </si>
   <si>
     <t>GameStart</t>
@@ -538,41 +535,178 @@
     <t>玩家</t>
   </si>
   <si>
-    <t>突击加农炮炮弹</t>
-  </si>
-  <si>
-    <t>火箭炮弹</t>
-  </si>
-  <si>
-    <t>等离子喷枪炮弹</t>
-  </si>
-  <si>
-    <t>导弹阵列炮弹</t>
-  </si>
-  <si>
-    <t>BulletHit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hoverbuggy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
+    <t>炮塔爆炸</t>
+  </si>
+  <si>
+    <t>EnemyShootEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDeathExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人攻击特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumEntity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumSound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameBGM</t>
+  </si>
+  <si>
+    <t>MenuBGM</t>
+  </si>
+  <si>
+    <t>EnemyFire</t>
+  </si>
+  <si>
+    <t>MacrossPlacement</t>
+  </si>
+  <si>
+    <t>WeaponPlacement1</t>
+  </si>
+  <si>
+    <t>WeaponPlacement2</t>
+  </si>
+  <si>
+    <t>base_attack</t>
+  </si>
+  <si>
+    <t>zone_enter</t>
+  </si>
+  <si>
+    <t>EnemiesExploding1</t>
+  </si>
+  <si>
+    <t>EnemiesExploding2</t>
+  </si>
+  <si>
+    <t>EnemiesExploding3</t>
+  </si>
+  <si>
+    <t>EnemiesExploding4</t>
+  </si>
+  <si>
+    <t>EnemiesExploding5</t>
+  </si>
+  <si>
+    <t>Destruction1</t>
+  </si>
+  <si>
+    <t>Destruction2</t>
+  </si>
+  <si>
+    <t>Destruction3</t>
+  </si>
+  <si>
+    <t>Destruction4</t>
+  </si>
+  <si>
+    <t>Destruction5</t>
+  </si>
+  <si>
+    <t>LaserFire</t>
+  </si>
+  <si>
+    <t>MG1</t>
+  </si>
+  <si>
+    <t>MG2</t>
+  </si>
+  <si>
+    <t>MG3</t>
+  </si>
+  <si>
+    <t>MG4</t>
+  </si>
+  <si>
+    <t>MG5</t>
+  </si>
+  <si>
+    <t>MG6</t>
+  </si>
+  <si>
+    <t>MG7</t>
+  </si>
+  <si>
+    <t>MG8</t>
+  </si>
+  <si>
+    <t>MG9</t>
+  </si>
+  <si>
+    <t>MG10</t>
+  </si>
+  <si>
+    <t>MG11</t>
+  </si>
+  <si>
+    <t>MG12</t>
+  </si>
+  <si>
+    <t>MG13</t>
+  </si>
+  <si>
+    <t>MG14</t>
+  </si>
+  <si>
+    <t>RocketTowerShoot</t>
+  </si>
+  <si>
+    <t>SuperTowerShot1</t>
+  </si>
+  <si>
+    <t>SuperTowerShot2</t>
+  </si>
+  <si>
+    <t>SuperTowerShot3</t>
+  </si>
+  <si>
+    <t>SuperTowerShot4</t>
+  </si>
+  <si>
+    <t>SuperTowerShot5</t>
+  </si>
+  <si>
+    <t>SuperTowerShot6</t>
+  </si>
+  <si>
+    <t>SuperTowerShot7</t>
+  </si>
+  <si>
+    <t>TDCurrency</t>
+  </si>
+  <si>
+    <t>TDDefeat</t>
+  </si>
+  <si>
+    <t>TDEMPIdle</t>
+  </si>
+  <si>
+    <t>TDTowerSell</t>
+  </si>
+  <si>
+    <t>TDTowerUpgrade</t>
+  </si>
+  <si>
+    <t>TDVictory</t>
+  </si>
+  <si>
+    <t>ui_sound_back</t>
+  </si>
+  <si>
+    <t>ui_sound_forward</t>
   </si>
 </sst>
 </file>
@@ -662,9 +796,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -674,6 +805,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -991,13 +1125,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -1056,8 +1190,8 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1065,893 +1199,1212 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4">
+        <v>101</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="H5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J5" s="4">
+        <v>102</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4">
+        <v>103</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4">
+        <v>104</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>105</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="4">
+        <v>106</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="4">
+        <v>107</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="H11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1001</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="H12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1002</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1003</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="H14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1004</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="5">
+    </row>
+    <row r="16" spans="1:12">
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1006</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="5">
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1007</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5">
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1008</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="5">
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1009</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="H9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="5">
+    </row>
+    <row r="20" spans="8:11">
+      <c r="H20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1010</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="H10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="5">
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="5">
+        <v>1040</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="H11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1001</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="H12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1002</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="H13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1003</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="H14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1004</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="H15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1005</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="H16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1006</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11">
-      <c r="H17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1007</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1008</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1009</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1010</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="8:11">
-      <c r="H21" s="5" t="s">
+    </row>
+    <row r="22" spans="8:11">
+      <c r="H22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1041</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1042</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11">
+      <c r="H24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1043</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11">
+      <c r="H25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1044</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="5">
+        <v>1045</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1046</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1047</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1048</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" ht="15">
+      <c r="H30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" s="5">
+        <v>1049</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" ht="15">
+      <c r="H31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1050</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1051</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="5">
+        <v>1052</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11">
+      <c r="H34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1053</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="8:11">
+      <c r="H35" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="5">
+        <v>1054</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="8:11">
+      <c r="H36" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J36" s="5">
+        <v>1055</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2001</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2002</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="4">
+        <v>3001</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3002</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="8:11">
+      <c r="H41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="4">
+        <v>3003</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="8:11">
+      <c r="H42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="4">
+        <v>3004</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="8:11" ht="28.5">
+      <c r="H43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="6">
-        <v>1040</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1041</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1042</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1043</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11">
-      <c r="H25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1044</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11">
-      <c r="H26" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1045</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="6">
-        <v>1046</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="8:11">
-      <c r="H28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J28" s="6">
-        <v>1047</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="6">
-        <v>1048</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" ht="15">
-      <c r="H30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J30" s="6">
-        <v>1049</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11" ht="15">
-      <c r="H31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="6">
-        <v>1050</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="6">
-        <v>1051</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11">
-      <c r="H33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="6">
-        <v>1052</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="8:11">
-      <c r="H34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J34" s="6">
-        <v>1053</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="8:11">
-      <c r="H35" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" s="5">
-        <v>2001</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="8:11">
-      <c r="H36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="5">
-        <v>2002</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11">
-      <c r="H37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="5">
-        <v>3001</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="8:11">
-      <c r="H38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="5">
-        <v>3002</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="8:11">
-      <c r="H39" s="5" t="s">
+      <c r="J43" s="4">
+        <v>3005</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11">
+      <c r="H44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="J39" s="5">
-        <v>3003</v>
-      </c>
-      <c r="K39" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="8:11">
-      <c r="H40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" s="5">
-        <v>3004</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="8:11" ht="28.5">
-      <c r="H41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="5">
-        <v>3005</v>
-      </c>
-      <c r="K41" s="5" t="s">
+      <c r="J44" s="4">
+        <v>3006</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="8:11">
-      <c r="H42" s="5" t="s">
+    <row r="45" spans="8:11">
+      <c r="H45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J42" s="5">
-        <v>3006</v>
-      </c>
-      <c r="K42" s="5" t="s">
+      <c r="J45" s="4">
+        <v>3007</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="8:11">
-      <c r="H43" s="5" t="s">
+    <row r="46" spans="8:11">
+      <c r="H46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J43" s="5">
-        <v>3007</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="J46" s="4">
+        <v>3008</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="8:11">
-      <c r="H44" s="5" t="s">
+    <row r="47" spans="8:11">
+      <c r="H47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J44" s="5">
-        <v>3008</v>
-      </c>
-      <c r="K44" s="5" t="s">
+      <c r="J47" s="4">
+        <v>3009</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="8:11">
-      <c r="H45" s="5" t="s">
+    <row r="48" spans="8:11">
+      <c r="H48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="5">
-        <v>3009</v>
-      </c>
-      <c r="K45" s="5" t="s">
+      <c r="J48" s="4">
+        <v>3010</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="8:11">
-      <c r="H46" s="5" t="s">
+    <row r="49" spans="8:11">
+      <c r="H49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J46" s="5">
-        <v>3010</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="J49" s="4">
+        <v>3011</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="8:11">
-      <c r="H47" s="5" t="s">
+    <row r="50" spans="8:11">
+      <c r="H50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J47" s="5">
-        <v>3011</v>
-      </c>
-      <c r="K47" s="5" t="s">
+      <c r="J50" s="4">
+        <v>3012</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="8:11">
-      <c r="H48" s="5" t="s">
+    <row r="51" spans="8:11">
+      <c r="H51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J48" s="5">
-        <v>3012</v>
-      </c>
-      <c r="K48" s="5" t="s">
+      <c r="J51" s="4">
+        <v>3013</v>
+      </c>
+      <c r="K51" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="8:11">
-      <c r="H49" s="5" t="s">
+    <row r="52" spans="8:11">
+      <c r="H52" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J49" s="5">
-        <v>3013</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="J52" s="4">
+        <v>3014</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="5" t="s">
+    <row r="53" spans="8:11">
+      <c r="H53" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J50" s="5">
-        <v>3014</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="J53" s="4">
+        <v>3015</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="5" t="s">
+    <row r="54" spans="8:11">
+      <c r="H54" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J51" s="5">
-        <v>3015</v>
-      </c>
-      <c r="K51" s="5" t="s">
+      <c r="J54" s="4">
+        <v>3016</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="5" t="s">
+    <row r="55" spans="8:11">
+      <c r="H55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J52" s="5">
-        <v>3016</v>
-      </c>
-      <c r="K52" s="5" t="s">
+      <c r="J55" s="4">
+        <v>3017</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="5" t="s">
+    <row r="56" spans="8:11">
+      <c r="H56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="5">
-        <v>3017</v>
-      </c>
-      <c r="K53" s="5" t="s">
+      <c r="J56" s="4">
+        <v>3018</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="8:11">
-      <c r="H54" s="5" t="s">
+    <row r="57" spans="8:11">
+      <c r="H57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J54" s="5">
-        <v>3018</v>
-      </c>
-      <c r="K54" s="5" t="s">
+      <c r="J57" s="4">
+        <v>3019</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="5" t="s">
+    <row r="58" spans="8:11">
+      <c r="H58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J55" s="5">
-        <v>3019</v>
-      </c>
-      <c r="K55" s="5" t="s">
+      <c r="J58" s="4">
+        <v>3020</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="5" t="s">
+    <row r="59" spans="8:11">
+      <c r="H59" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J56" s="5">
-        <v>3020</v>
-      </c>
-      <c r="K56" s="5" t="s">
+      <c r="J59" s="4">
+        <v>3021</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="8:11">
-      <c r="H57" s="5" t="s">
+    <row r="60" spans="8:11">
+      <c r="H60" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J57" s="5">
-        <v>3021</v>
-      </c>
-      <c r="K57" s="5" t="s">
+      <c r="J60" s="4">
+        <v>3022</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="8:11">
-      <c r="H58" s="5" t="s">
+    <row r="61" spans="8:11">
+      <c r="H61" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J58" s="5">
-        <v>3022</v>
-      </c>
-      <c r="K58" s="5" t="s">
+      <c r="J61" s="4">
+        <v>3023</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="8:11">
-      <c r="H59" s="5" t="s">
+    <row r="62" spans="8:11">
+      <c r="H62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J59" s="5">
-        <v>3023</v>
-      </c>
-      <c r="K59" s="5" t="s">
+      <c r="J62" s="4">
+        <v>3024</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="8:11">
-      <c r="H60" s="5" t="s">
+    <row r="63" spans="8:11" ht="28.5">
+      <c r="H63" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="5">
-        <v>3024</v>
-      </c>
-      <c r="K60" s="5" t="s">
+      <c r="J63" s="4">
+        <v>3025</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="8:11" ht="28.5">
-      <c r="H61" s="5" t="s">
+    <row r="64" spans="8:11" ht="28.5">
+      <c r="H64" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J61" s="5">
-        <v>3025</v>
-      </c>
-      <c r="K61" s="5" t="s">
+      <c r="J64" s="4">
+        <v>3026</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="8:11" ht="28.5">
-      <c r="H62" s="5" t="s">
+    <row r="65" spans="2:11" ht="28.5">
+      <c r="H65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J62" s="5">
-        <v>3026</v>
-      </c>
-      <c r="K62" s="5" t="s">
+      <c r="J65" s="4">
+        <v>3027</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="8:11" ht="28.5">
-      <c r="H63" s="5" t="s">
+    <row r="66" spans="2:11">
+      <c r="H66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J63" s="5">
-        <v>3027</v>
-      </c>
-      <c r="K63" s="5" t="s">
+      <c r="J66" s="4">
+        <v>3028</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="64" spans="8:11">
-      <c r="H64" s="5" t="s">
+    <row r="67" spans="2:11">
+      <c r="H67" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J64" s="5">
-        <v>3028</v>
-      </c>
-      <c r="K64" s="5" t="s">
+      <c r="J67" s="4">
+        <v>3029</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="H65" s="5" t="s">
+    <row r="68" spans="2:11">
+      <c r="H68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J65" s="5">
-        <v>3029</v>
-      </c>
-      <c r="K65" s="5" t="s">
+      <c r="J68" s="4">
+        <v>3030</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="H66" s="5" t="s">
+    <row r="69" spans="2:11">
+      <c r="H69" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J69" s="4">
+        <v>3031</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11">
+      <c r="H70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J66" s="5">
-        <v>3030</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="H67" s="7" t="s">
+      <c r="J70" s="4">
+        <v>3032</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11">
+      <c r="H71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J71" s="4">
+        <v>3033</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="H72" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J72" s="4">
+        <v>3034</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="H73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J73" s="4">
+        <v>3035</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="H74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J74" s="4">
+        <v>3036</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="H75" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J75" s="4">
+        <v>3037</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="H76" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J76" s="4">
+        <v>3038</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
+      <c r="H77" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="4">
+        <v>3039</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11">
+      <c r="B78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J67" s="5">
-        <v>3031</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="H68" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68" s="5">
-        <v>3032</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="H69" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J69" s="5">
-        <v>3033</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="H70" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J70" s="5">
-        <v>3034</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="H71" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J71" s="5">
-        <v>3035</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="H72" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J72" s="5">
-        <v>3036</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="H73" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J73" s="5">
-        <v>3037</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="H74" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J74" s="5">
-        <v>3038</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="H75" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J75" s="5">
-        <v>3039</v>
-      </c>
-      <c r="K75" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="4" t="s">
+      <c r="H78" t="s">
         <v>169</v>
       </c>
-      <c r="H76" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J76" s="5">
-        <v>3040</v>
-      </c>
-      <c r="K76" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J77" s="5">
-        <v>3041</v>
-      </c>
-      <c r="K77" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J78" s="5">
-        <v>3042</v>
-      </c>
-      <c r="K78" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J79" s="5">
-        <v>3043</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J80" s="5">
-        <v>3044</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J81" s="5">
-        <v>3045</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J82" s="5">
-        <v>3046</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>114</v>
+      <c r="J78">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="H79" t="s">
+        <v>170</v>
+      </c>
+      <c r="J79">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="H80" t="s">
+        <v>171</v>
+      </c>
+      <c r="J80">
+        <v>20001</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10">
+      <c r="H81" t="s">
+        <v>172</v>
+      </c>
+      <c r="J81">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10">
+      <c r="H82" t="s">
+        <v>173</v>
+      </c>
+      <c r="J82">
+        <v>20003</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10">
+      <c r="H83" t="s">
+        <v>174</v>
+      </c>
+      <c r="J83">
+        <v>20004</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10">
+      <c r="H84" t="s">
+        <v>175</v>
+      </c>
+      <c r="J84">
+        <v>21001</v>
+      </c>
+    </row>
+    <row r="85" spans="8:10">
+      <c r="H85" t="s">
+        <v>176</v>
+      </c>
+      <c r="J85">
+        <v>21002</v>
+      </c>
+    </row>
+    <row r="86" spans="8:10">
+      <c r="H86" t="s">
+        <v>177</v>
+      </c>
+      <c r="J86">
+        <v>22001</v>
+      </c>
+    </row>
+    <row r="87" spans="8:10">
+      <c r="H87" t="s">
+        <v>178</v>
+      </c>
+      <c r="J87">
+        <v>22002</v>
+      </c>
+    </row>
+    <row r="88" spans="8:10">
+      <c r="H88" t="s">
+        <v>179</v>
+      </c>
+      <c r="J88">
+        <v>22003</v>
+      </c>
+    </row>
+    <row r="89" spans="8:10">
+      <c r="H89" t="s">
+        <v>180</v>
+      </c>
+      <c r="J89">
+        <v>22004</v>
+      </c>
+    </row>
+    <row r="90" spans="8:10">
+      <c r="H90" t="s">
+        <v>181</v>
+      </c>
+      <c r="J90">
+        <v>22005</v>
+      </c>
+    </row>
+    <row r="91" spans="8:10">
+      <c r="H91" t="s">
+        <v>182</v>
+      </c>
+      <c r="J91">
+        <v>23001</v>
+      </c>
+    </row>
+    <row r="92" spans="8:10">
+      <c r="H92" t="s">
+        <v>183</v>
+      </c>
+      <c r="J92">
+        <v>23002</v>
+      </c>
+    </row>
+    <row r="93" spans="8:10">
+      <c r="H93" t="s">
+        <v>184</v>
+      </c>
+      <c r="J93">
+        <v>23003</v>
+      </c>
+    </row>
+    <row r="94" spans="8:10">
+      <c r="H94" t="s">
+        <v>185</v>
+      </c>
+      <c r="J94">
+        <v>23004</v>
+      </c>
+    </row>
+    <row r="95" spans="8:10">
+      <c r="H95" t="s">
+        <v>186</v>
+      </c>
+      <c r="J95">
+        <v>23005</v>
+      </c>
+    </row>
+    <row r="96" spans="8:10">
+      <c r="H96" t="s">
+        <v>187</v>
+      </c>
+      <c r="J96">
+        <v>24001</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10">
+      <c r="H97" t="s">
+        <v>188</v>
+      </c>
+      <c r="J97">
+        <v>25001</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10">
+      <c r="H98" t="s">
+        <v>189</v>
+      </c>
+      <c r="J98">
+        <v>25002</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10">
+      <c r="H99" t="s">
+        <v>190</v>
+      </c>
+      <c r="J99">
+        <v>25003</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10">
+      <c r="H100" t="s">
+        <v>191</v>
+      </c>
+      <c r="J100">
+        <v>25004</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10">
+      <c r="H101" t="s">
+        <v>192</v>
+      </c>
+      <c r="J101">
+        <v>25005</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10">
+      <c r="H102" t="s">
+        <v>193</v>
+      </c>
+      <c r="J102">
+        <v>25006</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10">
+      <c r="H103" t="s">
+        <v>194</v>
+      </c>
+      <c r="J103">
+        <v>25007</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10">
+      <c r="H104" t="s">
+        <v>195</v>
+      </c>
+      <c r="J104">
+        <v>25008</v>
+      </c>
+    </row>
+    <row r="105" spans="8:10">
+      <c r="H105" t="s">
+        <v>196</v>
+      </c>
+      <c r="J105">
+        <v>25009</v>
+      </c>
+    </row>
+    <row r="106" spans="8:10">
+      <c r="H106" t="s">
+        <v>197</v>
+      </c>
+      <c r="J106">
+        <v>25010</v>
+      </c>
+    </row>
+    <row r="107" spans="8:10">
+      <c r="H107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J107">
+        <v>25011</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10">
+      <c r="H108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J108">
+        <v>25012</v>
+      </c>
+    </row>
+    <row r="109" spans="8:10">
+      <c r="H109" t="s">
+        <v>200</v>
+      </c>
+      <c r="J109">
+        <v>25013</v>
+      </c>
+    </row>
+    <row r="110" spans="8:10">
+      <c r="H110" t="s">
+        <v>201</v>
+      </c>
+      <c r="J110">
+        <v>25014</v>
+      </c>
+    </row>
+    <row r="111" spans="8:10">
+      <c r="H111" t="s">
+        <v>202</v>
+      </c>
+      <c r="J111">
+        <v>26001</v>
+      </c>
+    </row>
+    <row r="112" spans="8:10">
+      <c r="H112" t="s">
+        <v>203</v>
+      </c>
+      <c r="J112">
+        <v>27001</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10">
+      <c r="H113" t="s">
+        <v>204</v>
+      </c>
+      <c r="J113">
+        <v>27002</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10">
+      <c r="H114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J114">
+        <v>27003</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10">
+      <c r="H115" t="s">
+        <v>206</v>
+      </c>
+      <c r="J115">
+        <v>27004</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10">
+      <c r="H116" t="s">
+        <v>207</v>
+      </c>
+      <c r="J116">
+        <v>27005</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10">
+      <c r="H117" t="s">
+        <v>208</v>
+      </c>
+      <c r="J117">
+        <v>27006</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10">
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="J118">
+        <v>27007</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10">
+      <c r="H119" t="s">
+        <v>210</v>
+      </c>
+      <c r="J119">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10">
+      <c r="H120" t="s">
+        <v>211</v>
+      </c>
+      <c r="J120">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10">
+      <c r="H121" t="s">
+        <v>212</v>
+      </c>
+      <c r="J121">
+        <v>30003</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10">
+      <c r="H122" t="s">
+        <v>213</v>
+      </c>
+      <c r="J122">
+        <v>30004</v>
+      </c>
+    </row>
+    <row r="123" spans="8:10">
+      <c r="H123" t="s">
+        <v>214</v>
+      </c>
+      <c r="J123">
+        <v>30005</v>
+      </c>
+    </row>
+    <row r="124" spans="8:10">
+      <c r="H124" t="s">
+        <v>215</v>
+      </c>
+      <c r="J124">
+        <v>30006</v>
+      </c>
+    </row>
+    <row r="125" spans="8:10">
+      <c r="H125" t="s">
+        <v>216</v>
+      </c>
+      <c r="J125">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="126" spans="8:10">
+      <c r="H126" t="s">
+        <v>217</v>
+      </c>
+      <c r="J126">
+        <v>30008</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/LubanConfig/Datas/__enums__.xlsx
+++ b/Luban/LubanConfig/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D7B84E-E4E7-4378-82CA-FD6E1EBE2D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207004E3-43C6-4CDE-AFE5-C66680965DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
   <si>
     <t>##var</t>
   </si>
@@ -707,6 +707,99 @@
   </si>
   <si>
     <t>ui_sound_forward</t>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numProjectile</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityProjectileHitscanLogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EntityProjectileBallistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logic</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EntityEnergyPylon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logic</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EntityEMPGenerator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logic</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EntityProjectileWobblingHoming</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Logic</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -786,7 +879,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1084,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2295,7 +2389,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="113" spans="8:10">
+    <row r="113" spans="2:10">
       <c r="H113" t="s">
         <v>204</v>
       </c>
@@ -2303,7 +2397,7 @@
         <v>27002</v>
       </c>
     </row>
-    <row r="114" spans="8:10">
+    <row r="114" spans="2:10">
       <c r="H114" t="s">
         <v>205</v>
       </c>
@@ -2311,7 +2405,7 @@
         <v>27003</v>
       </c>
     </row>
-    <row r="115" spans="8:10">
+    <row r="115" spans="2:10">
       <c r="H115" t="s">
         <v>206</v>
       </c>
@@ -2319,7 +2413,7 @@
         <v>27004</v>
       </c>
     </row>
-    <row r="116" spans="8:10">
+    <row r="116" spans="2:10">
       <c r="H116" t="s">
         <v>207</v>
       </c>
@@ -2327,7 +2421,7 @@
         <v>27005</v>
       </c>
     </row>
-    <row r="117" spans="8:10">
+    <row r="117" spans="2:10">
       <c r="H117" t="s">
         <v>208</v>
       </c>
@@ -2335,7 +2429,7 @@
         <v>27006</v>
       </c>
     </row>
-    <row r="118" spans="8:10">
+    <row r="118" spans="2:10">
       <c r="H118" t="s">
         <v>209</v>
       </c>
@@ -2343,7 +2437,7 @@
         <v>27007</v>
       </c>
     </row>
-    <row r="119" spans="8:10">
+    <row r="119" spans="2:10">
       <c r="H119" t="s">
         <v>210</v>
       </c>
@@ -2351,7 +2445,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="120" spans="8:10">
+    <row r="120" spans="2:10">
       <c r="H120" t="s">
         <v>211</v>
       </c>
@@ -2359,7 +2453,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="121" spans="8:10">
+    <row r="121" spans="2:10">
       <c r="H121" t="s">
         <v>212</v>
       </c>
@@ -2367,7 +2461,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="122" spans="8:10">
+    <row r="122" spans="2:10">
       <c r="H122" t="s">
         <v>213</v>
       </c>
@@ -2375,7 +2469,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="123" spans="8:10">
+    <row r="123" spans="2:10">
       <c r="H123" t="s">
         <v>214</v>
       </c>
@@ -2383,7 +2477,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="124" spans="8:10">
+    <row r="124" spans="2:10">
       <c r="H124" t="s">
         <v>215</v>
       </c>
@@ -2391,7 +2485,7 @@
         <v>30006</v>
       </c>
     </row>
-    <row r="125" spans="8:10">
+    <row r="125" spans="2:10">
       <c r="H125" t="s">
         <v>216</v>
       </c>
@@ -2399,12 +2493,63 @@
         <v>30007</v>
       </c>
     </row>
-    <row r="126" spans="8:10">
+    <row r="126" spans="2:10">
       <c r="H126" t="s">
         <v>217</v>
       </c>
       <c r="J126">
         <v>30008</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="H128" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="8:10">
+      <c r="H129" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="8:10">
+      <c r="H130" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="8:10">
+      <c r="H131" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="8:10">
+      <c r="H132" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J132">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/LubanConfig/Datas/__enums__.xlsx
+++ b/Luban/LubanConfig/Datas/__enums__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207004E3-43C6-4CDE-AFE5-C66680965DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A658E0F9-2C63-4A19-81DF-780DD174F800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="226">
   <si>
     <t>##var</t>
   </si>
@@ -799,6 +799,23 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,10 +916,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1178,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K130" sqref="K130"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1219,13 +1236,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2110,445 +2127,454 @@
       <c r="B78" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H78" t="s">
-        <v>169</v>
-      </c>
-      <c r="J78">
-        <v>10001</v>
-      </c>
+      <c r="H78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4"/>
     </row>
     <row r="79" spans="2:11">
       <c r="H79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J79">
-        <v>10002</v>
+        <v>10001</v>
       </c>
     </row>
     <row r="80" spans="2:11">
       <c r="H80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J80">
-        <v>20001</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="81" spans="8:10">
       <c r="H81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J81">
-        <v>20002</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="82" spans="8:10">
       <c r="H82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J82">
-        <v>20003</v>
+        <v>20002</v>
       </c>
     </row>
     <row r="83" spans="8:10">
       <c r="H83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J83">
-        <v>20004</v>
+        <v>20003</v>
       </c>
     </row>
     <row r="84" spans="8:10">
       <c r="H84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J84">
-        <v>21001</v>
+        <v>20004</v>
       </c>
     </row>
     <row r="85" spans="8:10">
       <c r="H85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J85">
-        <v>21002</v>
+        <v>21001</v>
       </c>
     </row>
     <row r="86" spans="8:10">
       <c r="H86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J86">
-        <v>22001</v>
+        <v>21002</v>
       </c>
     </row>
     <row r="87" spans="8:10">
       <c r="H87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J87">
-        <v>22002</v>
+        <v>22001</v>
       </c>
     </row>
     <row r="88" spans="8:10">
       <c r="H88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J88">
-        <v>22003</v>
+        <v>22002</v>
       </c>
     </row>
     <row r="89" spans="8:10">
       <c r="H89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J89">
-        <v>22004</v>
+        <v>22003</v>
       </c>
     </row>
     <row r="90" spans="8:10">
       <c r="H90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J90">
-        <v>22005</v>
+        <v>22004</v>
       </c>
     </row>
     <row r="91" spans="8:10">
       <c r="H91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J91">
-        <v>23001</v>
+        <v>22005</v>
       </c>
     </row>
     <row r="92" spans="8:10">
       <c r="H92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J92">
-        <v>23002</v>
+        <v>23001</v>
       </c>
     </row>
     <row r="93" spans="8:10">
       <c r="H93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J93">
-        <v>23003</v>
+        <v>23002</v>
       </c>
     </row>
     <row r="94" spans="8:10">
       <c r="H94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J94">
-        <v>23004</v>
+        <v>23003</v>
       </c>
     </row>
     <row r="95" spans="8:10">
       <c r="H95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J95">
-        <v>23005</v>
+        <v>23004</v>
       </c>
     </row>
     <row r="96" spans="8:10">
       <c r="H96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J96">
-        <v>24001</v>
+        <v>23005</v>
       </c>
     </row>
     <row r="97" spans="8:10">
       <c r="H97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J97">
-        <v>25001</v>
+        <v>24001</v>
       </c>
     </row>
     <row r="98" spans="8:10">
       <c r="H98" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J98">
-        <v>25002</v>
+        <v>25001</v>
       </c>
     </row>
     <row r="99" spans="8:10">
       <c r="H99" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J99">
-        <v>25003</v>
+        <v>25002</v>
       </c>
     </row>
     <row r="100" spans="8:10">
       <c r="H100" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J100">
-        <v>25004</v>
+        <v>25003</v>
       </c>
     </row>
     <row r="101" spans="8:10">
       <c r="H101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J101">
-        <v>25005</v>
+        <v>25004</v>
       </c>
     </row>
     <row r="102" spans="8:10">
       <c r="H102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J102">
-        <v>25006</v>
+        <v>25005</v>
       </c>
     </row>
     <row r="103" spans="8:10">
       <c r="H103" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J103">
-        <v>25007</v>
+        <v>25006</v>
       </c>
     </row>
     <row r="104" spans="8:10">
       <c r="H104" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J104">
-        <v>25008</v>
+        <v>25007</v>
       </c>
     </row>
     <row r="105" spans="8:10">
       <c r="H105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J105">
-        <v>25009</v>
+        <v>25008</v>
       </c>
     </row>
     <row r="106" spans="8:10">
       <c r="H106" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J106">
-        <v>25010</v>
+        <v>25009</v>
       </c>
     </row>
     <row r="107" spans="8:10">
       <c r="H107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J107">
-        <v>25011</v>
+        <v>25010</v>
       </c>
     </row>
     <row r="108" spans="8:10">
       <c r="H108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J108">
-        <v>25012</v>
+        <v>25011</v>
       </c>
     </row>
     <row r="109" spans="8:10">
       <c r="H109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J109">
-        <v>25013</v>
+        <v>25012</v>
       </c>
     </row>
     <row r="110" spans="8:10">
       <c r="H110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J110">
-        <v>25014</v>
+        <v>25013</v>
       </c>
     </row>
     <row r="111" spans="8:10">
       <c r="H111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J111">
-        <v>26001</v>
+        <v>25014</v>
       </c>
     </row>
     <row r="112" spans="8:10">
       <c r="H112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J112">
-        <v>27001</v>
+        <v>26001</v>
       </c>
     </row>
     <row r="113" spans="2:10">
       <c r="H113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J113">
-        <v>27002</v>
+        <v>27001</v>
       </c>
     </row>
     <row r="114" spans="2:10">
       <c r="H114" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J114">
-        <v>27003</v>
+        <v>27002</v>
       </c>
     </row>
     <row r="115" spans="2:10">
       <c r="H115" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J115">
-        <v>27004</v>
+        <v>27003</v>
       </c>
     </row>
     <row r="116" spans="2:10">
       <c r="H116" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J116">
-        <v>27005</v>
+        <v>27004</v>
       </c>
     </row>
     <row r="117" spans="2:10">
       <c r="H117" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J117">
-        <v>27006</v>
+        <v>27005</v>
       </c>
     </row>
     <row r="118" spans="2:10">
       <c r="H118" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J118">
-        <v>27007</v>
+        <v>27006</v>
       </c>
     </row>
     <row r="119" spans="2:10">
       <c r="H119" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J119">
-        <v>30001</v>
+        <v>27007</v>
       </c>
     </row>
     <row r="120" spans="2:10">
       <c r="H120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J120">
-        <v>30002</v>
+        <v>30001</v>
       </c>
     </row>
     <row r="121" spans="2:10">
       <c r="H121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J121">
-        <v>30003</v>
+        <v>30002</v>
       </c>
     </row>
     <row r="122" spans="2:10">
       <c r="H122" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J122">
-        <v>30004</v>
+        <v>30003</v>
       </c>
     </row>
     <row r="123" spans="2:10">
       <c r="H123" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J123">
-        <v>30005</v>
+        <v>30004</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="H124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J124">
-        <v>30006</v>
+        <v>30005</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="H125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J125">
-        <v>30007</v>
+        <v>30006</v>
       </c>
     </row>
     <row r="126" spans="2:10">
       <c r="H126" t="s">
+        <v>216</v>
+      </c>
+      <c r="J126">
+        <v>30007</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="H127" t="s">
         <v>217</v>
       </c>
-      <c r="J126">
+      <c r="J127">
         <v>30008</v>
       </c>
     </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="3" t="s">
+    <row r="128" spans="2:10">
+      <c r="B128" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="H128" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J127">
+      <c r="J128">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:10">
-      <c r="H128" s="8" t="s">
+    <row r="129" spans="8:10">
+      <c r="H129" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="J128">
+      <c r="J129">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="8:10">
-      <c r="H129" s="8" t="s">
+    <row r="130" spans="8:10">
+      <c r="H130" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="J129">
+      <c r="J130">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="8:10">
-      <c r="H130" s="8" t="s">
+    <row r="131" spans="8:10">
+      <c r="H131" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="J130">
+      <c r="J131">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="8:10">
-      <c r="H131" s="8" t="s">
+    <row r="132" spans="8:10">
+      <c r="H132" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J131">
+      <c r="J132">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="8:10">
-      <c r="H132" s="8" t="s">
+    <row r="133" spans="8:10">
+      <c r="H133" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="J132">
+      <c r="J133">
         <v>5</v>
       </c>
     </row>
